--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\50_Informatik\100_R\001_Kunden\TaB\Abrechnungen\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub 2024\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F454CCC-C1CF-4A27-AEC3-DA244B76B1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7739464E-DF7D-4D57-8203-5FBB664C677B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="3084" yWindow="3780" windowWidth="15684" windowHeight="11832" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>Punsch</t>
-  </si>
-  <si>
-    <t>Marshmallows</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -62,16 +56,31 @@
     <t>Anzahl verkaufter Artikel</t>
   </si>
   <si>
-    <t>Gipfeli</t>
-  </si>
-  <si>
-    <t>Gipfeli+Kafi</t>
-  </si>
-  <si>
     <t>Spez 1</t>
   </si>
   <si>
     <t>Spez 2</t>
+  </si>
+  <si>
+    <t>Minestrone vegi</t>
+  </si>
+  <si>
+    <t>Schoggibrunnen</t>
+  </si>
+  <si>
+    <t>Minestrone Salami</t>
+  </si>
+  <si>
+    <t>Spez 3</t>
+  </si>
+  <si>
+    <t>Spez 4</t>
+  </si>
+  <si>
+    <t>Spende</t>
+  </si>
+  <si>
+    <t>unbekannt</t>
   </si>
 </sst>
 </file>
@@ -120,13 +129,13 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -142,14 +151,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:F7" totalsRowShown="0">
+  <autoFilter ref="A1:F7" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
     <tableColumn id="3" xr3:uid="{7FEC0B3F-B7F7-492A-A2CC-4C43E7370E3F}" name="Artikelname"/>
-    <tableColumn id="4" xr3:uid="{3EC8A94D-5F55-472D-905C-204DD835F9D2}" name="Verkaufspreis" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{966EAAE9-A0F8-4F52-B2B1-4534CD873A27}" name="Einkaufspreis" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3EC8A94D-5F55-472D-905C-204DD835F9D2}" name="Verkaufspreis" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{966EAAE9-A0F8-4F52-B2B1-4534CD873A27}" name="Einkaufspreis" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{6D1A3E3C-8B9B-44F2-91C7-2874FB9B2AA1}" name="Anzahl verkaufter Artikel"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -453,120 +462,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45311</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45311</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45242</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45311</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45242</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45311</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45312</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45256</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45312</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>1</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45256</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub 2024\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7739464E-DF7D-4D57-8203-5FBB664C677B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DFEDC5-A493-4001-8468-373F5A649E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3084" yWindow="3780" windowWidth="15684" windowHeight="11832" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Datum</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Verkaufspreis</t>
-  </si>
-  <si>
-    <t>Einkaufspreis</t>
   </si>
   <si>
     <t>Anzahl verkaufter Artikel</t>
@@ -127,10 +124,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
     </dxf>
@@ -151,14 +145,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:F7" totalsRowShown="0">
-  <autoFilter ref="A1:F7" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
     <tableColumn id="3" xr3:uid="{7FEC0B3F-B7F7-492A-A2CC-4C43E7370E3F}" name="Artikelname"/>
-    <tableColumn id="4" xr3:uid="{3EC8A94D-5F55-472D-905C-204DD835F9D2}" name="Verkaufspreis" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{966EAAE9-A0F8-4F52-B2B1-4534CD873A27}" name="Einkaufspreis" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{3EC8A94D-5F55-472D-905C-204DD835F9D2}" name="Verkaufspreis" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{6D1A3E3C-8B9B-44F2-91C7-2874FB9B2AA1}" name="Anzahl verkaufter Artikel"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -462,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,11 +467,10 @@
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="31.5546875" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,127 +486,106 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45311</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="E2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45311</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="E3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45311</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45311</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45312</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
-        <v>48.5</v>
-      </c>
-      <c r="F6">
+      <c r="E6">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45312</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
         <v>50</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E7">
         <v>1</v>
       </c>
     </row>

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub 2024\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DFEDC5-A493-4001-8468-373F5A649E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73E220A-0758-4AC4-B7D6-02A0BD3BDBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="11724" yWindow="2004" windowWidth="15684" windowHeight="11832" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -77,7 +77,10 @@
     <t>Spende</t>
   </si>
   <si>
-    <t>unbekannt</t>
+    <t>Proseco</t>
+  </si>
+  <si>
+    <t>Wein 1dl</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,10 +535,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -546,13 +549,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub 2024\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73E220A-0758-4AC4-B7D6-02A0BD3BDBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11634010-E804-4B18-BD61-D2D3ABA71E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11724" yWindow="2004" windowWidth="15684" windowHeight="11832" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Datum</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Wein 1dl</t>
+  </si>
+  <si>
+    <t>Gipfeli</t>
   </si>
 </sst>
 </file>
@@ -148,8 +151,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,6 +595,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45319</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanjablonski/Documents/Kinoklub_Finance/Kinoklub/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11634010-E804-4B18-BD61-D2D3ABA71E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24BA728-B1E0-3349-BAFC-363A0A525BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -84,14 +84,18 @@
   </si>
   <si>
     <t>Gipfeli</t>
+  </si>
+  <si>
+    <t>Kaffee und Gipfeli</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -122,20 +126,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -151,8 +156,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
-  <autoFilter ref="A1:E8" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
+  <autoFilter ref="A1:E9" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
@@ -165,7 +170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -461,22 +466,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45311</v>
       </c>
@@ -510,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45311</v>
       </c>
@@ -527,7 +532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45311</v>
       </c>
@@ -544,7 +549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45311</v>
       </c>
@@ -561,7 +566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45312</v>
       </c>
@@ -578,7 +583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45312</v>
       </c>
@@ -595,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45319</v>
       </c>
@@ -610,6 +615,23 @@
       </c>
       <c r="E8">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>45354</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanjablonski/Documents/Kinoklub_Finance/Kinoklub/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24BA728-B1E0-3349-BAFC-363A0A525BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2063D4D5-2FF9-4A5C-9E46-7BA0C1F8AD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -126,21 +125,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -170,9 +168,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,7 +208,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -316,7 +314,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -458,7 +456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -472,16 +470,16 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45311</v>
       </c>
@@ -515,7 +513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45311</v>
       </c>
@@ -532,7 +530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45311</v>
       </c>
@@ -549,7 +547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45311</v>
       </c>
@@ -566,7 +564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45312</v>
       </c>
@@ -583,7 +581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45312</v>
       </c>
@@ -600,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45319</v>
       </c>
@@ -617,8 +615,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>45354</v>
       </c>
       <c r="B9" t="s">

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2063D4D5-2FF9-4A5C-9E46-7BA0C1F8AD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27E3D61-5DA6-4DC1-AADF-594C53714AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="5028" yWindow="3852" windowWidth="15684" windowHeight="11832" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>Kaffee und Gipfeli</t>
+  </si>
+  <si>
+    <t>Kaffee und Gebäck</t>
+  </si>
+  <si>
+    <t>Gebäck</t>
+  </si>
+  <si>
+    <t>Kollekte</t>
   </si>
 </sst>
 </file>
@@ -154,8 +163,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
-  <autoFilter ref="A1:E9" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
@@ -464,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,6 +641,57 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45368</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45368</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45368</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2">
+        <v>240</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27E3D61-5DA6-4DC1-AADF-594C53714AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A861C9D-CE30-4D9D-B73A-D63E118E1840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5028" yWindow="3852" windowWidth="15684" windowHeight="11832" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="5376" yWindow="4200" windowWidth="15684" windowHeight="11832" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Gebäck</t>
-  </si>
-  <si>
-    <t>Kollekte</t>
   </si>
 </sst>
 </file>
@@ -163,8 +160,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+  <autoFilter ref="A1:E12" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
@@ -473,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,23 +672,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>45368</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2">
-        <v>240</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A861C9D-CE30-4D9D-B73A-D63E118E1840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA455936-52DA-4AF7-B647-FAD874B5B7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5376" yWindow="4200" windowWidth="15684" windowHeight="11832" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="5028" yWindow="3852" windowWidth="15684" windowHeight="11832" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Gebäck</t>
+  </si>
+  <si>
+    <t>Leibniz Kekse Dschungel</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,6 +675,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>104.24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA455936-52DA-4AF7-B647-FAD874B5B7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C604E2B0-264B-47FD-AD07-83B19F68DADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5028" yWindow="3852" windowWidth="15684" windowHeight="11832" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="5724" yWindow="4548" windowWidth="15684" windowHeight="11832" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -677,7 +677,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>104.24</v>
+        <v>45383</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C604E2B0-264B-47FD-AD07-83B19F68DADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6752C71F-8486-4A11-9324-D2A789CFD917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5724" yWindow="4548" windowWidth="15684" windowHeight="11832" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Leibniz Kekse Dschungel</t>
+  </si>
+  <si>
+    <t>Treppensitze</t>
   </si>
 </sst>
 </file>
@@ -163,8 +166,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
-  <autoFilter ref="A1:E12" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,6 +695,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6752C71F-8486-4A11-9324-D2A789CFD917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE50DDDB-6BC5-4182-8FB5-0998EDDE3919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Leibniz Kekse Dschungel</t>
-  </si>
-  <si>
-    <t>Treppensitze</t>
   </si>
 </sst>
 </file>
@@ -166,8 +163,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+  <autoFilter ref="A1:E12" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
@@ -476,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,20 +692,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>45403</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE50DDDB-6BC5-4182-8FB5-0998EDDE3919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF1F0CE-80D3-4D67-8272-DC2E491C39EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -163,8 +163,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
-  <autoFilter ref="A1:E12" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,6 +692,23 @@
         <v>2</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45431</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanjablonski/Documents/Kinoklub_Finance/Kinoklub/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF1F0CE-80D3-4D67-8272-DC2E491C39EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB821FC-EE1E-0647-95A9-C75E794FFC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Leibniz Kekse Dschungel</t>
+  </si>
+  <si>
+    <t>Marshmellows</t>
+  </si>
+  <si>
+    <t>Dschungeltiere</t>
   </si>
 </sst>
 </file>
@@ -140,14 +146,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -163,8 +169,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+  <autoFilter ref="A1:E15" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
@@ -177,9 +183,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -217,7 +223,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -323,7 +329,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -465,7 +471,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -473,22 +479,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45311</v>
       </c>
@@ -522,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45311</v>
       </c>
@@ -539,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45311</v>
       </c>
@@ -556,7 +562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45311</v>
       </c>
@@ -573,7 +579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45312</v>
       </c>
@@ -590,7 +596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45312</v>
       </c>
@@ -607,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45319</v>
       </c>
@@ -624,7 +630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45354</v>
       </c>
@@ -641,7 +647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45368</v>
       </c>
@@ -658,7 +664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45368</v>
       </c>
@@ -675,7 +681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45383</v>
       </c>
@@ -692,7 +698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45431</v>
       </c>
@@ -707,6 +713,40 @@
       </c>
       <c r="E13">
         <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45438</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45438</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanjablonski/Documents/Kinoklub_Finance/Kinoklub/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB821FC-EE1E-0647-95A9-C75E794FFC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC3B5E0-A76D-0040-AFB5-4326CC552FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -102,14 +102,21 @@
   </si>
   <si>
     <t>Dschungeltiere</t>
+  </si>
+  <si>
+    <t>Zuckerwatte</t>
+  </si>
+  <si>
+    <t>Pistache</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -140,10 +147,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -169,8 +177,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
-  <autoFilter ref="A1:E15" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+  <autoFilter ref="A1:E18" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
@@ -183,9 +191,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -223,7 +231,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -329,7 +337,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -471,7 +479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -479,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -749,6 +757,43 @@
         <v>2</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45543</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45543</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanjablonski/Documents/Kinoklub_Finance/Kinoklub/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanjablonski/Kinoklub/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC3B5E0-A76D-0040-AFB5-4326CC552FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD6F61E-4D66-0348-A800-6097766842DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -114,9 +114,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -147,11 +146,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -490,7 +488,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -792,7 +790,21 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="1">
+        <v>45557</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanjablonski/Kinoklub/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD6F61E-4D66-0348-A800-6097766842DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D00FB9D-C83A-4FCE-A1C3-6B66BAF74141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="5112" yWindow="5220" windowWidth="15684" windowHeight="11832" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -152,14 +152,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -175,8 +175,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
-  <autoFilter ref="A1:E18" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+  <autoFilter ref="A1:E19" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
@@ -189,9 +189,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -229,7 +229,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -335,7 +335,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -485,22 +485,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45311</v>
       </c>
@@ -534,7 +534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45311</v>
       </c>
@@ -551,7 +551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45311</v>
       </c>
@@ -568,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45311</v>
       </c>
@@ -585,7 +585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45312</v>
       </c>
@@ -602,7 +602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45312</v>
       </c>
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45319</v>
       </c>
@@ -636,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45354</v>
       </c>
@@ -653,7 +653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45368</v>
       </c>
@@ -670,7 +670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45368</v>
       </c>
@@ -687,7 +687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45383</v>
       </c>
@@ -704,7 +704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45431</v>
       </c>
@@ -721,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45438</v>
       </c>
@@ -738,7 +738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45438</v>
       </c>
@@ -755,7 +755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45543</v>
       </c>
@@ -772,7 +772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45543</v>
       </c>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45557</v>
       </c>
@@ -804,6 +804,23 @@
       </c>
       <c r="E18">
         <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45571</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D00FB9D-C83A-4FCE-A1C3-6B66BAF74141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A54406F-C7E2-4D61-AAF5-CBC37044D40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="5220" windowWidth="15684" windowHeight="11832" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>Pistache</t>
+  </si>
+  <si>
+    <t>Raclette klein</t>
+  </si>
+  <si>
+    <t>Raclette gross</t>
+  </si>
+  <si>
+    <t>Weisswein Wallis</t>
+  </si>
+  <si>
+    <t>Zauberstab-Spiessli</t>
   </si>
 </sst>
 </file>
@@ -175,8 +187,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
-  <autoFilter ref="A1:E19" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+  <autoFilter ref="A1:E26" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
@@ -485,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,6 +835,125 @@
         <v>6</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45577</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45577</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45577</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45578</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
